--- a/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2011416440608913</v>
+        <v>0.2020994128655473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1606772930837799</v>
+        <v>0.1614031584165504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1620471506339236</v>
+        <v>0.1647078282370414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1403799032404812</v>
+        <v>0.1459057087531364</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2361815998070115</v>
+        <v>0.2384811152691534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2906988683517978</v>
+        <v>0.2938726956206745</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2251652498765163</v>
+        <v>0.2216761791287998</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2391658478858336</v>
+        <v>0.2412886915719059</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2269286045469091</v>
+        <v>0.228749465256736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2433359044855523</v>
+        <v>0.2431469940374259</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2049951116421992</v>
+        <v>0.2037021004511833</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2062461096887906</v>
+        <v>0.2066922547872561</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2526305268080022</v>
+        <v>0.252951395106381</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2119675538705783</v>
+        <v>0.2119693489773608</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2193928332092563</v>
+        <v>0.2204150737001406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1985359952742111</v>
+        <v>0.2059618734997172</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2857657157576987</v>
+        <v>0.2848037003500395</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3437254111640975</v>
+        <v>0.3425071343456835</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2826780035757165</v>
+        <v>0.2819072072535819</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2854406825228192</v>
+        <v>0.2903104418074944</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2633779539049064</v>
+        <v>0.2635892105765834</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2817053198820971</v>
+        <v>0.2815424950169366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2456889430268165</v>
+        <v>0.2458671235184223</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2460089268697871</v>
+        <v>0.2449816302422113</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1135358912667414</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1492588463404545</v>
+        <v>0.1492588463404546</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1262483279113631</v>
+        <v>0.1264408535314865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1334385057002324</v>
+        <v>0.1339392790766247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08281095230816876</v>
+        <v>0.08294047226908838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1096059507710441</v>
+        <v>0.1086021916489055</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1801045788833291</v>
+        <v>0.1827899671135692</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2193204429570996</v>
+        <v>0.2189430860150093</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1179126096424832</v>
+        <v>0.1182789126265588</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1601908916066396</v>
+        <v>0.1601511745940771</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1575934975418374</v>
+        <v>0.157569097213018</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1782146226940528</v>
+        <v>0.1782703150804375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1040703986205949</v>
+        <v>0.1037128039611983</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1390093734948942</v>
+        <v>0.1388241747795842</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1615913120775478</v>
+        <v>0.1598843229881214</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1667755509116033</v>
+        <v>0.1650609711521944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1096053970007446</v>
+        <v>0.1086798857456406</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1389595487523941</v>
+        <v>0.1395326850736458</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2224451686772785</v>
+        <v>0.2228285447024377</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2615631834509901</v>
+        <v>0.261037709254446</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1488861063968375</v>
+        <v>0.1481004504279288</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1906896127496711</v>
+        <v>0.1904219706375356</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1836323605153896</v>
+        <v>0.1839260945502413</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2063689731604239</v>
+        <v>0.2063345440804478</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1249780305951066</v>
+        <v>0.1236451612037039</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1604293169020184</v>
+        <v>0.159821604350648</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1194236537887216</v>
+        <v>0.1169459066603085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09971566065803007</v>
+        <v>0.101214962989242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06896918460242768</v>
+        <v>0.06988373692201899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1097804768196934</v>
+        <v>0.1115741650388621</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1594691203692035</v>
+        <v>0.1534631298643374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1289623205109645</v>
+        <v>0.1260780759774509</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1080812485345488</v>
+        <v>0.1104352907498982</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1543924295478583</v>
+        <v>0.1530495272284441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1463594616876626</v>
+        <v>0.1436111134909534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1235636413167667</v>
+        <v>0.122906585138825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09493714641142899</v>
+        <v>0.0973797869120594</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1377484378721469</v>
+        <v>0.1385978106859045</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1794564163723683</v>
+        <v>0.1808439755598386</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1678126967578016</v>
+        <v>0.1693465773542334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1208410180370536</v>
+        <v>0.1253215842341124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.164200504129729</v>
+        <v>0.1643342554401055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.230200631124175</v>
+        <v>0.2311686750510347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2026566575480168</v>
+        <v>0.2056919464036162</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.166849653775236</v>
+        <v>0.1683597744192295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2046077256421998</v>
+        <v>0.203887276935538</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1937293229020801</v>
+        <v>0.1913692172137358</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1737453523920812</v>
+        <v>0.1738181122857189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1348096398486127</v>
+        <v>0.1359302998312368</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1740294010909394</v>
+        <v>0.1754392959619382</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1571331394633096</v>
+        <v>0.1563629429276997</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1440065491259944</v>
+        <v>0.1447160128222469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1055790517706411</v>
+        <v>0.1050908097139646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.121774028009241</v>
+        <v>0.1216907613789639</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.210384891240275</v>
+        <v>0.2091322624071572</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2431571447390639</v>
+        <v>0.2428685880485135</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1549412449819695</v>
+        <v>0.1537894980311247</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1838208155343615</v>
+        <v>0.1840829544586666</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1874173572021005</v>
+        <v>0.1877449710806427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1988073220924639</v>
+        <v>0.1986249074474133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1341007282834205</v>
+        <v>0.1337060466757213</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1570451710574141</v>
+        <v>0.1580324314746019</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1824861217724765</v>
+        <v>0.18335927958011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1697496137562735</v>
+        <v>0.1701013800823809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1278681278778413</v>
+        <v>0.128418933938395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1454102376218934</v>
+        <v>0.1442493136825232</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2384856621983439</v>
+        <v>0.2383821800776008</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2735436556729834</v>
+        <v>0.2735081482046605</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1814172739228612</v>
+        <v>0.1794141431437733</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2065642654055085</v>
+        <v>0.2071003724574626</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2081368771182676</v>
+        <v>0.2077324527852897</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2187643396013791</v>
+        <v>0.2190023104727863</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1502702308118934</v>
+        <v>0.150398190597714</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1735819483537523</v>
+        <v>0.173890701188754</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>207522</v>
+        <v>208511</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>156282</v>
+        <v>156988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>122240</v>
+        <v>124247</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>81092</v>
+        <v>84284</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>310605</v>
+        <v>313630</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>388317</v>
+        <v>392557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>223486</v>
+        <v>220023</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>196603</v>
+        <v>198348</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>532564</v>
+        <v>536837</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>561729</v>
+        <v>561293</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>358104</v>
+        <v>355845</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>288683</v>
+        <v>289307</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>260645</v>
+        <v>260976</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>206169</v>
+        <v>206171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>165498</v>
+        <v>166269</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>114687</v>
+        <v>118976</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>375814</v>
+        <v>374549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>459150</v>
+        <v>457523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>280570</v>
+        <v>279805</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>234643</v>
+        <v>238646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>618105</v>
+        <v>618600</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>650303</v>
+        <v>649928</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>429192</v>
+        <v>429503</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>344339</v>
+        <v>342901</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>213791</v>
+        <v>214117</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>261917</v>
+        <v>262899</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>171768</v>
+        <v>172036</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>244483</v>
+        <v>242244</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>285947</v>
+        <v>290211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>384438</v>
+        <v>383776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>234204</v>
+        <v>234931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>347672</v>
+        <v>347585</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>517078</v>
+        <v>516998</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>662189</v>
+        <v>662396</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>422574</v>
+        <v>421122</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>611770</v>
+        <v>610955</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>273641</v>
+        <v>270750</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>327351</v>
+        <v>323986</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>227345</v>
+        <v>225425</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>309958</v>
+        <v>311237</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>353170</v>
+        <v>353779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>458483</v>
+        <v>457562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>295725</v>
+        <v>294165</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>413865</v>
+        <v>413284</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>602514</v>
+        <v>603477</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>766802</v>
+        <v>766674</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>507469</v>
+        <v>502057</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>706037</v>
+        <v>703363</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>65851</v>
+        <v>64485</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>47981</v>
+        <v>48703</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37718</v>
+        <v>38218</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78118</v>
+        <v>79395</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>75973</v>
+        <v>73112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59009</v>
+        <v>57689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59141</v>
+        <v>60429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>113459</v>
+        <v>112473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>150431</v>
+        <v>147606</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>115995</v>
+        <v>115378</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>103868</v>
+        <v>106541</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>199248</v>
+        <v>200477</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>98954</v>
+        <v>99719</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>80748</v>
+        <v>81486</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66086</v>
+        <v>68537</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116843</v>
+        <v>116938</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>109670</v>
+        <v>110132</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>92729</v>
+        <v>94118</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>91298</v>
+        <v>92125</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>150362</v>
+        <v>149832</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>199119</v>
+        <v>196693</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>163103</v>
+        <v>163171</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>147492</v>
+        <v>148718</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>251727</v>
+        <v>253767</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>514853</v>
+        <v>512330</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>492020</v>
+        <v>494444</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>356376</v>
+        <v>354728</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>428622</v>
+        <v>428329</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>710932</v>
+        <v>706699</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>862291</v>
+        <v>861268</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>546320</v>
+        <v>542259</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>685150</v>
+        <v>686127</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1247401</v>
+        <v>1249582</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1384272</v>
+        <v>1383002</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>925487</v>
+        <v>922763</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1138120</v>
+        <v>1145275</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>597924</v>
+        <v>600785</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>579976</v>
+        <v>581177</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>431612</v>
+        <v>433471</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>511817</v>
+        <v>507731</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>805890</v>
+        <v>805540</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>970049</v>
+        <v>969923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>639674</v>
+        <v>632611</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>769921</v>
+        <v>771920</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1385305</v>
+        <v>1382613</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1523231</v>
+        <v>1524888</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1037079</v>
+        <v>1037963</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1257964</v>
+        <v>1260201</v>
       </c>
     </row>
     <row r="20">
